--- a/biology/Botanique/Salix_hastata/Salix_hastata.xlsx
+++ b/biology/Botanique/Salix_hastata/Salix_hastata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le saule à feuilles hastées (Salix hastata) est une espèce d'arbuste de la famille des Salicaceae. Sa distribution est essentiellement circumpolaire.
 </t>
@@ -511,9 +523,11 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Salix hastata subsp. 'hastata' L., 1753[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Salix hastata subsp. 'hastata' L., 1753.</t>
         </is>
       </c>
     </row>
@@ -541,11 +555,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Salix hastata est un saule des rocailles et des alluvions, de 50 cm à 1,50 m de hauteur, poussant de 1 200 à 2 500 m d'altitude. Il présente des feuilles glabres et finement dentées, vertes au-dessus, glauques sur la face inférieure. 
-La floraison est contemporaine de l'émergence des feuilles, elle a lieu de juin à août. Les chatons femelles sont particulièrement longs et dressés[1].
-En France, l'espèce se rencontre dans les Hautes-Alpes[1]
+La floraison est contemporaine de l'émergence des feuilles, elle a lieu de juin à août. Les chatons femelles sont particulièrement longs et dressés.
+En France, l'espèce se rencontre dans les Hautes-Alpes
 </t>
         </is>
       </c>
